--- a/getTranslationFromDeepL/paraNeedTranslate/paragraphElement-phase3.xlsx
+++ b/getTranslationFromDeepL/paraNeedTranslate/paragraphElement-phase3.xlsx
@@ -2013,7 +2013,7 @@
           <t>The Interceptors Available status condition indicates whether the platform can engage the threat or has subordinates available to engage the threat. In the case where no interceptors are available, the only reaction this platform has is through the User Rules phase; and in the case of an ARM alert, an appropriate reaction might be to shut down all emitters to protect the platform.</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="13" t="inlineStr">
         <is>
           <t>拦截器可用状态条件表明该平台是否可以与威胁交战，或者是否有下属可以与威胁交战。在没有拦截器可用的情况下，该平台的唯一反应是通过用户规则阶段；而在ARM警报的情况下，适当的反应可能是关闭所有发射器以保护该平台。</t>
         </is>
@@ -2366,6 +2366,11 @@
       <c r="A250" s="9" t="inlineStr">
         <is>
           <t>·       Generate Jamming Alert</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>- 产生干扰警报</t>
         </is>
       </c>
     </row>
